--- a/trunk/Informes/TP Anual 2/costos.xlsx
+++ b/trunk/Informes/TP Anual 2/costos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="2640"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19440" windowHeight="2640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Elemento</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Cableado e Infraestructura de Comunicaciones</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Terminales de Operación</t>
   </si>
   <si>
@@ -103,19 +100,46 @@
   </si>
   <si>
     <t>GANANCIA PARA LA EMPRESA</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <t>Cantida de horas</t>
+  </si>
+  <si>
+    <t>Costo unitario</t>
+  </si>
+  <si>
+    <t>Costos totales</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Inversión</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Post-instalación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-2C0A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,6 +765,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,96 +859,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +983,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -967,7 +1017,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1143,23 +1192,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1170,333 +1221,424 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B4" s="25">
         <v>30</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C4" s="26">
         <v>250</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C5" s="29">
         <f>1100 * 4.1</f>
         <v>4510</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B6" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C6" s="29">
         <f>4.1*800</f>
         <v>3279.9999999999995</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B7" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C7" s="29">
         <v>4500</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C8" s="29">
         <v>6500</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="75"/>
+      <c r="B10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31">
+      <c r="C10" s="62">
+        <f>SUMPRODUCT(B4:B9,C4:C9)</f>
+        <v>40350</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="33">
+        <v>36</v>
+      </c>
+      <c r="C12" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A13" s="75"/>
+      <c r="B13" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="62">
+        <f>SUMPRODUCT(B12,C12)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A15" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="32">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="35">
+        <v>86.4</v>
+      </c>
+      <c r="C16" s="40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="36">
+        <v>216</v>
+      </c>
+      <c r="C17" s="42">
+        <v>35</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36">
+        <v>360</v>
+      </c>
+      <c r="C18" s="42">
+        <v>25</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="37">
+        <v>57.6</v>
+      </c>
+      <c r="C19" s="43">
+        <v>38</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="60">
+        <f>SUMPRODUCT(B16:B19,C16:C19)</f>
+        <v>21513.599999999999</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A23" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A26" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="71"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A27" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50">
+        <v>600</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="61">
+        <f>SUM(C25:C27)</f>
+        <v>9600</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="48">
+        <f>C10</f>
+        <v>40350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="E29" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="50">
+        <f>C20+C28</f>
+        <v>31113.599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A30" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B30" s="52">
+        <f>C28+C20</f>
+        <v>31113.599999999999</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="E30" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35">
-        <v>86.4</v>
-      </c>
-      <c r="C12" s="46">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="36">
-        <v>216</v>
-      </c>
-      <c r="C13" s="48">
-        <v>35</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36">
-        <v>360</v>
-      </c>
-      <c r="C14" s="48">
+      <c r="F30" s="50">
+        <f>C13</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="22"/>
+      <c r="E31" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="61">
+        <f>SUM(F28:F30)</f>
+        <v>72543.600000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="55">
+        <v>4.12</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="51"/>
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="37">
-        <v>57.6</v>
-      </c>
-      <c r="C15" s="49">
-        <v>38</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="69">
-        <f>SUMPRODUCT(B3:B8,C3:C8)+SUMPRODUCT(B10,C10)+SUMPRODUCT(B12:B15,C12:C15)</f>
-        <v>62943.6</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="55">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="70">
-        <f>SUM(C20:C22)</f>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="61">
-        <f>C23+C16</f>
-        <v>72543.600000000006</v>
-      </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="64">
-        <v>4.12</v>
-      </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="66">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="B37" s="58">
+        <f>(B30/B32)*(1+B35)</f>
+        <v>18879.611650485436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="67">
-        <f>(B25/B27)*(1+B30)</f>
-        <v>44019.174757281551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="B38" s="59">
+        <f>B37*B32</f>
+        <v>77784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="54"/>
+      <c r="B39" s="59"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="68">
-        <f>B32*B27</f>
-        <v>181359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="68"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="68">
-        <f>B33-B25</f>
-        <v>108815.4</v>
+      <c r="B40" s="59">
+        <f>B38-B30</f>
+        <v>46670.400000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:C9"/>
+  <mergeCells count="5">
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1504,24 +1646,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Informes/TP Anual 2/costos.xlsx
+++ b/trunk/Informes/TP Anual 2/costos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19440" windowHeight="2640"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19440" windowHeight="2640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Finales" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Elemento</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Recurso</t>
   </si>
   <si>
-    <t>Cantida de horas</t>
-  </si>
-  <si>
     <t>Costo unitario</t>
   </si>
   <si>
@@ -127,19 +124,25 @@
   </si>
   <si>
     <t>Post-instalación</t>
+  </si>
+  <si>
+    <t>Cantidad de horas</t>
+  </si>
+  <si>
+    <t>Costo Unitario Tiempo Activo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-2C0A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,7 +843,62 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,41 +916,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +940,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -983,6 +1014,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1017,6 +1049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1192,14 +1225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
@@ -1210,7 +1243,7 @@
     <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1221,25 +1254,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="72" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1286,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1301,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1316,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1330,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" thickBot="1">
+    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1344,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
@@ -1325,8 +1358,8 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="75"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
       <c r="B10" s="62" t="s">
         <v>9</v>
       </c>
@@ -1338,56 +1371,51 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="63" t="s">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="33">
-        <v>36</v>
-      </c>
-      <c r="C12" s="34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="75"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
       <c r="B13" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="62">
-        <f>SUMPRODUCT(B12,C12)</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="66" t="s">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="72" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>10</v>
       </c>
@@ -1397,8 +1425,15 @@
       <c r="C16" s="40">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="D16">
+        <v>1440</v>
+      </c>
+      <c r="E16" s="72">
+        <f>D$16*C16</f>
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>11</v>
       </c>
@@ -1407,12 +1442,16 @@
       </c>
       <c r="C17" s="42">
         <v>35</v>
+      </c>
+      <c r="E17" s="72">
+        <f t="shared" ref="E17:E19" si="0">D$16*C17</f>
+        <v>50400</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>12</v>
       </c>
@@ -1421,12 +1460,16 @@
       </c>
       <c r="C18" s="42">
         <v>25</v>
+      </c>
+      <c r="E18" s="72">
+        <f t="shared" si="0"/>
+        <v>36000</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>16</v>
       </c>
@@ -1435,12 +1478,16 @@
       </c>
       <c r="C19" s="43">
         <v>38</v>
+      </c>
+      <c r="E19" s="72">
+        <f t="shared" si="0"/>
+        <v>54720</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="62" t="s">
         <v>9</v>
@@ -1449,33 +1496,37 @@
         <f>SUMPRODUCT(B16:B19,C16:C19)</f>
         <v>21513.599999999999</v>
       </c>
+      <c r="E20" s="72">
+        <f>SUM(E16:E19)</f>
+        <v>187200</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="69" t="s">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="76" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="81"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1535,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>19</v>
       </c>
@@ -1492,12 +1543,12 @@
       <c r="C26" s="48">
         <v>5000</v>
       </c>
-      <c r="E26" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="71"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="E26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="81"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>17</v>
       </c>
@@ -1505,14 +1556,14 @@
       <c r="C27" s="50">
         <v>600</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="F27" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="60" t="s">
         <v>9</v>
@@ -1521,27 +1572,27 @@
         <f>SUM(C25:C27)</f>
         <v>9600</v>
       </c>
-      <c r="E28" s="79" t="s">
-        <v>34</v>
+      <c r="E28" s="70" t="s">
+        <v>33</v>
       </c>
       <c r="F28" s="48">
         <f>C10</f>
         <v>40350</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
-      <c r="E29" s="80" t="s">
-        <v>35</v>
+      <c r="E29" s="71" t="s">
+        <v>34</v>
       </c>
       <c r="F29" s="50">
         <f>C20+C28</f>
         <v>31113.599999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>22</v>
       </c>
@@ -1550,15 +1601,15 @@
         <v>31113.599999999999</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="E30" s="80" t="s">
-        <v>36</v>
+      <c r="E30" s="71" t="s">
+        <v>35</v>
       </c>
       <c r="F30" s="50">
         <f>C13</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="22"/>
@@ -1567,10 +1618,10 @@
       </c>
       <c r="F31" s="61">
         <f>SUM(F28:F30)</f>
-        <v>72543.600000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>76777.600000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>24</v>
       </c>
@@ -1579,17 +1630,17 @@
       </c>
       <c r="C32" s="22"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="55"/>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="55"/>
       <c r="C34" s="22"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>23</v>
       </c>
@@ -1597,11 +1648,11 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="23"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>25</v>
       </c>
@@ -1610,7 +1661,7 @@
         <v>18879.611650485436</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>26</v>
       </c>
@@ -1619,11 +1670,11 @@
         <v>77784</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="59"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>27</v>
       </c>
@@ -1646,24 +1697,428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>30</v>
+      </c>
+      <c r="C4" s="75">
+        <v>250</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="75">
+        <f>1100 * 4.1</f>
+        <v>4510</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="75">
+        <f>4.1*800</f>
+        <v>3279.9999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="75">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="75">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2</v>
+      </c>
+      <c r="C9" s="75">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="73">
+        <f>SUMPRODUCT(B4:B9,C4:C9)</f>
+        <v>40350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="79"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="73">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1440</v>
+      </c>
+      <c r="C16" s="77">
+        <v>32</v>
+      </c>
+      <c r="D16" s="72"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1440</v>
+      </c>
+      <c r="C17" s="77">
+        <v>35</v>
+      </c>
+      <c r="E17" s="72"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36">
+        <v>1440</v>
+      </c>
+      <c r="C18" s="77">
+        <v>25</v>
+      </c>
+      <c r="E18" s="72"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1440</v>
+      </c>
+      <c r="C19" s="77">
+        <v>38</v>
+      </c>
+      <c r="E19" s="72"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="73">
+        <f>SUMPRODUCT(B16:B19,C16:C19)</f>
+        <v>187200</v>
+      </c>
+      <c r="E20" s="72"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="81"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="81"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50">
+        <v>600</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="61">
+        <f>SUM(C25:C27)</f>
+        <v>9600</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="48">
+        <f>C10</f>
+        <v>40350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="E29" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="50">
+        <f>C20+C28</f>
+        <v>196800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="52">
+        <f>C28+C20</f>
+        <v>196800</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="E30" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="50">
+        <f>C13+C28</f>
+        <v>14914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="22"/>
+      <c r="E31" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="61">
+        <f>SUM(F28:F30)</f>
+        <v>252064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="55">
+        <v>4.12</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="58">
+        <f>(B30/B32)*(1+B35)</f>
+        <v>119417.47572815533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="59">
+        <f>B37*B32</f>
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="59"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="59">
+        <f>B38-B30</f>
+        <v>295200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E26:F26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
